--- a/sale.xlsx
+++ b/sale.xlsx
@@ -20,6 +20,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -66,7 +67,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -266,119 +270,154 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.07" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.07" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Sale ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Date(and time)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Product ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Quantity Sold</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>51625</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>2026-01-15 19:56:22</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="3">
+      <c r="A6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>31258</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:38:22</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>A001</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>51625</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>2026-01-15 19:56:22</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="E7" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>68006</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:38:47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>B002</t>
         </is>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>69846</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>2026-01-15 19:56:32</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>B002</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>194.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2330.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>68006</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:38:47</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>200</v>
+      <c r="E9" t="n">
+        <v>142.79</v>
+      </c>
+      <c r="F9" t="n">
+        <v>285.58</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -273,7 +273,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -314,25 +314,76 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="3">
-      <c r="A2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
+      <c r="A2" s="2" t="n">
+        <v>31258</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:38:22</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>154.25</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
+      <c r="A3" s="2" t="n">
+        <v>68006</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:38:47</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>194.17</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2330.04</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="3">
-      <c r="A4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="A4" s="2" t="n">
+        <v>68006</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:38:47</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>142.79</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>285.58</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="3">
       <c r="A5" s="2" t="n"/>
@@ -341,84 +392,12 @@
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="3">
-      <c r="A6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>31258</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>2026-01-16 19:38:22</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>A001</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>154.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>68006</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-16 19:38:47</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B002</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>194.17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2330.04</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>68006</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-16 19:38:47</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>142.79</v>
-      </c>
-      <c r="F9" t="n">
-        <v>285.58</v>
-      </c>
+    <row r="6" ht="12.75" customHeight="1" s="3"/>
+    <row r="8" ht="12.75" customHeight="1" s="3">
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="3">
+      <c r="B9" s="2" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,13 +270,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="13.07" customWidth="1" style="2" min="2" max="2"/>
   </cols>
@@ -398,6 +398,54 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" s="3">
       <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10603</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-18 20:17:11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>194.17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>194.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13705</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-18 20:17:20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>142.79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>713.9499999999999</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,13 +270,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="13.07" customWidth="1" style="2" min="2" max="2"/>
   </cols>
@@ -400,51 +400,123 @@
       <c r="B9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
         <v>10603</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>2026-01-18 20:17:11</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>B002</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>194.17</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>194.17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>13705</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>2026-01-18 20:17:20</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>C003</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>142.79</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>713.9499999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>94655</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-19 16:42:09</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>78477</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-19 16:42:25</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>194.17</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>388.34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>81040</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-19 16:43:59</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>194.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>388.34</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
@@ -496,27 +496,75 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
         <v>81040</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>2026-01-19 16:43:59</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>B002</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2" t="n">
         <v>194.17</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2" t="n">
         <v>388.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8619</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:28:27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8619</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:28:38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B002</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>194.17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>582.51</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
@@ -520,51 +520,75 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="2" t="n">
         <v>8619</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>2026-01-20 14:28:27</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>A001</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2" t="n">
         <v>154.25</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2" t="n">
         <v>308.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="2" t="n">
         <v>8619</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>2026-01-20 14:28:38</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>B002</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2" t="n">
         <v>194.17</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2" t="n">
         <v>582.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8774</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-20 16:31:58</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>308.5</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
@@ -568,27 +568,147 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>8774</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>2026-01-20 16:31:58</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>A001</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>308.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>5269</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-20 16:56:40</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>D004</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>5259</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-20 17:01:18</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>4818</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-20 17:02:17</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>4531</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-20 17:03:55</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2715</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-20 17:04:51</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>154.25</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
@@ -688,27 +688,51 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2715</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>2026-01-20 17:04:51</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A001</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="F22" t="n">
-        <v>154.25</v>
+      <c r="E22" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-21 13:31:40</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>308.5</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,13 +270,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="13.07" customWidth="1" style="2" min="2" max="2"/>
   </cols>
@@ -712,27 +712,291 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 13:31:40</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>A001</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>308.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>9325</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-21 14:17:42</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>7507</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-21 14:18:21</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>4886</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-21 15:54:13</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>E005</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>105.75</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:00:29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>H008</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>163.73</v>
+      </c>
+      <c r="F27" t="n">
+        <v>163.73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:00:36</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>I009</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92</v>
+      </c>
+      <c r="F28" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:00:54</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J010</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>119.45</v>
+      </c>
+      <c r="F29" t="n">
+        <v>119.45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:01:07</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>K011</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:01:15</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>l012</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:01:24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>m013</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:01:29</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>n014</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>174</v>
+      </c>
+      <c r="F33" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4715</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:01:34</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>o015</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>169.67</v>
+      </c>
+      <c r="F34" t="n">
+        <v>169.67</v>
       </c>
     </row>
   </sheetData>

--- a/sale.xlsx
+++ b/sale.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
@@ -808,195 +808,291 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:00:29</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>H008</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>163.73</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2" t="n">
         <v>163.73</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:00:36</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>I009</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2" t="n">
         <v>276</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:00:54</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>J010</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>119.45</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2" t="n">
         <v>119.45</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:01:07</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>K011</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>90.8</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2" t="n">
         <v>90.8</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:01:15</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>l012</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>120.9</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2" t="n">
         <v>120.9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:01:24</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>m013</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2" t="n">
         <v>88.5</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:01:29</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>n014</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2" t="n">
         <v>174</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>2026-01-21 16:01:34</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>o015</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>169.67</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2" t="n">
         <v>169.67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>3378</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:03:58</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>3378</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:04:36</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>O015</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>169.67</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>3223.73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>7809</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:13:36</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9582</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:51:12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>O015</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>44</v>
+      </c>
+      <c r="E38" t="n">
+        <v>169.67</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7465.48</v>
       </c>
     </row>
   </sheetData>
